--- a/exemplo_kpis_1.xlsx
+++ b/exemplo_kpis_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GROUPS\BR_SC_JGS_WMO_ENG_QUALIDADE\05. Certificação de Produtos\Usuários\Magdo\1. Atividades\6. Victor\1. ATV - KPI's_Banco_de_Dados\1.1 Arquivo Piloto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{942D4205-B1FD-49AF-BCA3-40B3BE6B4298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C4249B-07CC-4780-8AFD-53A03B5FCD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Victor</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,6 +515,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H14" s="3"/>
     </row>
